--- a/Test Data/T1758_T1760.xlsx
+++ b/Test Data/T1758_T1760.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1D53E-31F8-4079-B41B-291425BF4F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB01025C-8871-4DF9-9931-F0954DA1C434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Repeaters" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>Wg</t>
   </si>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,31 +680,41 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -723,7 +733,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
